--- a/Q1_ Perfil dos Entrevistados.xlsx
+++ b/Q1_ Perfil dos Entrevistados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="196">
   <si>
     <t>Id</t>
   </si>
@@ -629,12 +629,92 @@
       <t xml:space="preserve"> quanto tempo conhece a mata ?</t>
     </r>
   </si>
+  <si>
+    <t>Ocupação</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <r>
+      <t>Lideran</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ça Comunitária </t>
+    </r>
+  </si>
+  <si>
+    <t>Desempregado</t>
+  </si>
+  <si>
+    <t>Outra</t>
+  </si>
+  <si>
+    <t>Agricultora</t>
+  </si>
+  <si>
+    <t>Extrativismo</t>
+  </si>
+  <si>
+    <t>Agricultura familiar</t>
+  </si>
+  <si>
+    <t>Medicina tradicional</t>
+  </si>
+  <si>
+    <t>Pesca artesanal</t>
+  </si>
+  <si>
+    <t>Aposentado</t>
+  </si>
+  <si>
+    <t>Autoridade tradicional</t>
+  </si>
+  <si>
+    <t>Estudante</t>
+  </si>
+  <si>
+    <r>
+      <t>Funcionario p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ú</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blico</t>
+    </r>
+  </si>
+  <si>
+    <t>Terceiro sector</t>
+  </si>
+  <si>
+    <t>Funcionario do Sector Privado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +755,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -696,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -716,6 +804,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1022,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,13 +1127,14 @@
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,16 +1147,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1074,14 +1172,17 @@
       <c r="D2" s="3">
         <v>69</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="8">
         <v>60</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1094,14 +1195,17 @@
       <c r="D3" s="3">
         <v>52</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="8">
         <v>45</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1114,14 +1218,17 @@
       <c r="D4" s="3">
         <v>67</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="8">
         <v>65</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1134,14 +1241,17 @@
       <c r="D5" s="3">
         <v>84</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="8">
         <v>75</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1154,14 +1264,17 @@
       <c r="D6" s="3">
         <v>40</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="8">
         <v>35</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1174,14 +1287,17 @@
       <c r="D7" s="3">
         <v>78</v>
       </c>
-      <c r="E7" s="8">
-        <v>70</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="8">
+        <v>70</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1194,14 +1310,17 @@
       <c r="D8" s="3">
         <v>57</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="8">
         <v>50</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1214,14 +1333,17 @@
       <c r="D9" s="3">
         <v>56</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="8">
         <v>50</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1234,14 +1356,17 @@
       <c r="D10" s="3">
         <v>23</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="8">
         <v>15</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1254,14 +1379,17 @@
       <c r="D11" s="3">
         <v>71</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="8">
         <v>60</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1274,14 +1402,17 @@
       <c r="D12" s="3">
         <v>40</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="8">
         <v>20</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1294,14 +1425,17 @@
       <c r="D13" s="3">
         <v>55</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="8">
         <v>45</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1314,14 +1448,17 @@
       <c r="D14" s="3">
         <v>64</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="8">
         <v>55</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1334,14 +1471,17 @@
       <c r="D15" s="3">
         <v>19</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="8">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1354,14 +1494,17 @@
       <c r="D16" s="3">
         <v>30</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="8">
         <v>20</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1374,14 +1517,17 @@
       <c r="D17" s="3">
         <v>29</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="8">
         <v>15</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1394,14 +1540,17 @@
       <c r="D18" s="3">
         <v>26</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="8">
         <v>30</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1414,14 +1563,17 @@
       <c r="D19" s="3">
         <v>39</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="8">
         <v>30</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1434,15 +1586,18 @@
       <c r="D20" s="3">
         <v>18</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="8">
         <v>10</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1455,14 +1610,17 @@
       <c r="D21" s="3">
         <v>29</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="8">
         <v>20</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1475,14 +1633,17 @@
       <c r="D22" s="3">
         <v>21</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="8">
         <v>15</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1495,14 +1656,17 @@
       <c r="D23" s="3">
         <v>21</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="8">
         <v>15</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1515,15 +1679,18 @@
       <c r="D24" s="3">
         <v>37</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" s="8">
         <v>30</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1536,14 +1703,17 @@
       <c r="D25" s="3">
         <v>21</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1556,14 +1726,17 @@
       <c r="D26" s="3">
         <v>50</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="8">
         <v>45</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1576,14 +1749,17 @@
       <c r="D27" s="3">
         <v>30</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="8">
         <v>20</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1596,14 +1772,17 @@
       <c r="D28" s="3">
         <v>18</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="8">
         <v>10</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1616,14 +1795,17 @@
       <c r="D29" s="3">
         <v>43</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="8">
         <v>37</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1636,14 +1818,17 @@
       <c r="D30" s="3">
         <v>29</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="8">
         <v>20</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1656,14 +1841,17 @@
       <c r="D31" s="3">
         <v>19</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="8">
         <v>12</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1676,14 +1864,17 @@
       <c r="D32" s="3">
         <v>39</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="8">
         <v>30</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1696,14 +1887,17 @@
       <c r="D33" s="3">
         <v>37</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="8">
         <v>30</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1716,14 +1910,17 @@
       <c r="D34" s="3">
         <v>19</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="8">
         <v>10</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1736,14 +1933,17 @@
       <c r="D35" s="3">
         <v>23</v>
       </c>
-      <c r="E35" s="8">
-        <v>5</v>
-      </c>
-      <c r="F35" s="5" t="s">
+      <c r="E35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="8">
+        <v>5</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1756,14 +1956,17 @@
       <c r="D36" s="3">
         <v>32</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="8">
         <v>23</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1776,14 +1979,17 @@
       <c r="D37" s="3">
         <v>47</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="8">
         <v>35</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1796,14 +2002,17 @@
       <c r="D38" s="3">
         <v>22</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="8">
         <v>15</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1816,14 +2025,17 @@
       <c r="D39" s="3">
         <v>21</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" s="8">
         <v>15</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1836,14 +2048,17 @@
       <c r="D40" s="3">
         <v>30</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" s="8">
         <v>20</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1856,14 +2071,17 @@
       <c r="D41" s="3">
         <v>25</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="8">
         <v>15</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1876,14 +2094,17 @@
       <c r="D42" s="3">
         <v>44</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="8">
         <v>2</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1896,14 +2117,17 @@
       <c r="D43" s="3">
         <v>21</v>
       </c>
-      <c r="E43" s="8">
-        <v>5</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="E43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="8">
+        <v>5</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1916,14 +2140,17 @@
       <c r="D44" s="3">
         <v>30</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="8">
         <v>20</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1936,14 +2163,17 @@
       <c r="D45" s="3">
         <v>26</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="8">
         <v>20</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1956,14 +2186,17 @@
       <c r="D46" s="3">
         <v>19</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="8">
         <v>13</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1976,14 +2209,17 @@
       <c r="D47" s="3">
         <v>23</v>
       </c>
-      <c r="E47" s="8">
-        <v>5</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="E47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="8">
+        <v>5</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1996,14 +2232,17 @@
       <c r="D48" s="3">
         <v>27</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="8">
         <v>10</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2016,14 +2255,17 @@
       <c r="D49" s="3">
         <v>21</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="8">
         <v>15</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2036,14 +2278,17 @@
       <c r="D50" s="3">
         <v>24</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="8">
         <v>14</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -2056,14 +2301,17 @@
       <c r="D51" s="3">
         <v>24</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F51" s="8">
         <v>7</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -2076,14 +2324,17 @@
       <c r="D52" s="3">
         <v>25</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" s="8">
         <v>10</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -2096,14 +2347,17 @@
       <c r="D53" s="3">
         <v>29</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="8">
         <v>20</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -2116,14 +2370,17 @@
       <c r="D54" s="3">
         <v>19</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="8">
         <v>10</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -2136,14 +2393,17 @@
       <c r="D55" s="3">
         <v>24</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="8">
         <v>12</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -2156,14 +2416,17 @@
       <c r="D56" s="3">
         <v>22</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="8">
         <v>10</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2176,14 +2439,17 @@
       <c r="D57" s="3">
         <v>22</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="8">
         <v>10</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2196,14 +2462,17 @@
       <c r="D58" s="3">
         <v>29</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="8">
         <v>20</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2216,14 +2485,17 @@
       <c r="D59" s="3">
         <v>18</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="8">
         <v>10</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2236,14 +2508,17 @@
       <c r="D60" s="3">
         <v>28</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" s="8">
         <v>20</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -2256,14 +2531,17 @@
       <c r="D61" s="3">
         <v>18</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="8">
         <v>10</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2276,14 +2554,17 @@
       <c r="D62" s="3">
         <v>30</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="8">
         <v>10</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2296,14 +2577,17 @@
       <c r="D63" s="3">
         <v>20</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="8">
         <v>2</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="G63" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2316,14 +2600,17 @@
       <c r="D64" s="3">
         <v>26</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F64" s="8">
         <v>16</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -2336,14 +2623,17 @@
       <c r="D65" s="3">
         <v>53</v>
       </c>
-      <c r="E65" s="8">
-        <v>8</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="8">
+        <v>8</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -2356,14 +2646,17 @@
       <c r="D66" s="3">
         <v>45</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="8">
         <v>3</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2376,14 +2669,17 @@
       <c r="D67" s="3">
         <v>52</v>
       </c>
-      <c r="E67" s="8">
-        <v>5</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="8">
+        <v>5</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2396,14 +2692,17 @@
       <c r="D68" s="3">
         <v>34</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="8">
         <v>20</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2416,14 +2715,17 @@
       <c r="D69" s="3">
         <v>45</v>
       </c>
-      <c r="E69" s="8">
-        <v>5</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="8">
+        <v>5</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2436,14 +2738,17 @@
       <c r="D70" s="3">
         <v>80</v>
       </c>
-      <c r="E70" s="8">
-        <v>70</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" s="8">
+        <v>70</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2456,14 +2761,17 @@
       <c r="D71" s="3">
         <v>24</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" s="8">
         <v>12</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2476,14 +2784,17 @@
       <c r="D72" s="3">
         <v>20</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72" s="8">
         <v>10</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2496,14 +2807,17 @@
       <c r="D73" s="3">
         <v>39</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="8">
         <v>30</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2516,14 +2830,17 @@
       <c r="D74" s="3">
         <v>21</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F74" s="8">
         <v>11</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2536,14 +2853,17 @@
       <c r="D75" s="3">
         <v>23</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="8">
         <v>3</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -2556,14 +2876,17 @@
       <c r="D76" s="3">
         <v>52</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76" s="8">
         <v>40</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2576,14 +2899,17 @@
       <c r="D77" s="3">
         <v>65</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="8">
         <v>60</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2596,14 +2922,17 @@
       <c r="D78" s="3">
         <v>19</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F78" s="8">
         <v>1</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -2616,14 +2945,17 @@
       <c r="D79" s="3">
         <v>30</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" s="8">
         <v>20</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2636,14 +2968,17 @@
       <c r="D80" s="3">
         <v>53</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="8">
         <v>1</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2656,14 +2991,17 @@
       <c r="D81" s="3">
         <v>27</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81" s="8">
         <v>17</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -2676,14 +3014,17 @@
       <c r="D82" s="3">
         <v>34</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="8">
         <v>25</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2696,14 +3037,17 @@
       <c r="D83" s="3">
         <v>49</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F83" s="8">
         <v>35</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -2716,14 +3060,17 @@
       <c r="D84" s="3">
         <v>75</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2736,14 +3083,17 @@
       <c r="D85" s="3">
         <v>20</v>
       </c>
-      <c r="E85" s="8">
-        <v>6</v>
-      </c>
-      <c r="F85" s="5" t="s">
+      <c r="E85" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" s="8">
+        <v>6</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -2756,14 +3106,17 @@
       <c r="D86" s="3">
         <v>28</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F86" s="8">
         <v>20</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2776,14 +3129,17 @@
       <c r="D87" s="3">
         <v>59</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F87" s="8">
         <v>45</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -2796,14 +3152,17 @@
       <c r="D88" s="3">
         <v>37</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88" s="8">
         <v>17</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2816,14 +3175,17 @@
       <c r="D89" s="3">
         <v>41</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F89" s="8">
         <v>30</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2836,14 +3198,17 @@
       <c r="D90" s="3">
         <v>45</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F90" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -2856,14 +3221,17 @@
       <c r="D91" s="3">
         <v>23</v>
       </c>
-      <c r="E91" s="8">
-        <v>5</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" s="8">
+        <v>5</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2876,14 +3244,17 @@
       <c r="D92" s="3">
         <v>53</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="8">
         <v>45</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -2896,14 +3267,17 @@
       <c r="D93" s="3">
         <v>67</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F93" s="8">
         <v>50</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2916,14 +3290,17 @@
       <c r="D94" s="3">
         <v>45</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F94" s="8">
         <v>36</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -2936,14 +3313,17 @@
       <c r="D95" s="3">
         <v>65</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F95" s="8">
         <v>40</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -2956,14 +3336,17 @@
       <c r="D96" s="3">
         <v>48</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F96" s="8">
         <v>20</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2976,14 +3359,17 @@
       <c r="D97" s="3">
         <v>29</v>
       </c>
-      <c r="E97" s="8">
-        <v>6</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" s="8">
+        <v>6</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2996,14 +3382,17 @@
       <c r="D98" s="3">
         <v>78</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -3016,14 +3405,17 @@
       <c r="D99" s="3">
         <v>67</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F99" s="8">
         <v>55</v>
       </c>
-      <c r="F99" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -3036,14 +3428,17 @@
       <c r="D100" s="3">
         <v>23</v>
       </c>
-      <c r="E100" s="8">
-        <v>5</v>
-      </c>
-      <c r="F100" s="5" t="s">
+      <c r="E100" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F100" s="8">
+        <v>5</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -3056,14 +3451,17 @@
       <c r="D101" s="3">
         <v>86</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" s="8">
         <v>80</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -3076,14 +3474,17 @@
       <c r="D102" s="3">
         <v>24</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F102" s="8">
         <v>15</v>
       </c>
-      <c r="F102" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -3096,14 +3497,17 @@
       <c r="D103" s="3">
         <v>47</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F103" s="8">
         <v>40</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -3116,14 +3520,17 @@
       <c r="D104" s="3">
         <v>25</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F104" s="8">
         <v>2</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -3136,14 +3543,17 @@
       <c r="D105" s="3">
         <v>58</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E105" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F105" s="8">
         <v>43</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -3156,14 +3566,17 @@
       <c r="D106" s="3">
         <v>44</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F106" s="8">
         <v>35</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -3176,14 +3589,17 @@
       <c r="D107" s="3">
         <v>21</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F107" s="8">
         <v>15</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -3196,14 +3612,17 @@
       <c r="D108" s="3">
         <v>39</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E108" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F108" s="8">
         <v>30</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -3216,14 +3635,17 @@
       <c r="D109" s="3">
         <v>28</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F109" s="8">
         <v>10</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -3236,14 +3658,17 @@
       <c r="D110" s="3">
         <v>49</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E110" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F110" s="8">
         <v>34</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -3256,14 +3681,17 @@
       <c r="D111" s="3">
         <v>58</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F111" s="8">
         <v>40</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -3276,14 +3704,17 @@
       <c r="D112" s="3">
         <v>38</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E112" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F112" s="8">
         <v>25</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -3296,14 +3727,17 @@
       <c r="D113" s="3">
         <v>72</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F113" s="8">
         <v>60</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -3316,14 +3750,17 @@
       <c r="D114" s="3">
         <v>18</v>
       </c>
-      <c r="E114" s="8">
+      <c r="E114" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F114" s="8">
         <v>2</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="G114" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -3336,14 +3773,17 @@
       <c r="D115" s="3">
         <v>55</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F115" s="8">
         <v>45</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -3356,14 +3796,17 @@
       <c r="D116" s="3">
         <v>80</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F116" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -3376,14 +3819,17 @@
       <c r="D117" s="3">
         <v>37</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F117" s="8">
         <v>4</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -3396,14 +3842,17 @@
       <c r="D118" s="3">
         <v>32</v>
       </c>
-      <c r="E118" s="8">
+      <c r="E118" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F118" s="8">
         <v>20</v>
       </c>
-      <c r="F118" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -3416,14 +3865,17 @@
       <c r="D119" s="3">
         <v>36</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -3436,14 +3888,17 @@
       <c r="D120" s="3">
         <v>19</v>
       </c>
-      <c r="E120" s="8">
+      <c r="E120" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F120" s="8">
         <v>10</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -3456,14 +3911,17 @@
       <c r="D121" s="3">
         <v>23</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F121" s="8">
         <v>14</v>
       </c>
-      <c r="F121" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -3476,14 +3934,17 @@
       <c r="D122" s="3">
         <v>57</v>
       </c>
-      <c r="E122" s="8">
+      <c r="E122" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F122" s="8">
         <v>45</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -3496,14 +3957,17 @@
       <c r="D123" s="3">
         <v>39</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E123" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F123" s="8">
         <v>22</v>
       </c>
-      <c r="F123" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -3516,14 +3980,17 @@
       <c r="D124" s="3">
         <v>35</v>
       </c>
-      <c r="E124" s="8">
+      <c r="E124" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F124" s="8">
         <v>7</v>
       </c>
-      <c r="F124" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -3536,14 +4003,17 @@
       <c r="D125" s="3">
         <v>48</v>
       </c>
-      <c r="E125" s="8">
+      <c r="E125" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F125" s="8">
         <v>40</v>
       </c>
-      <c r="F125" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>133</v>
       </c>
@@ -3556,14 +4026,17 @@
       <c r="D126" s="3">
         <v>75</v>
       </c>
-      <c r="E126" s="8">
-        <v>70</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F126" s="8">
+        <v>70</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -3576,14 +4049,17 @@
       <c r="D127" s="3">
         <v>56</v>
       </c>
-      <c r="E127" s="8">
+      <c r="E127" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F127" s="8">
         <v>15</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>135</v>
       </c>
@@ -3596,14 +4072,17 @@
       <c r="D128" s="3">
         <v>39</v>
       </c>
-      <c r="E128" s="8">
+      <c r="E128" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F128" s="8">
         <v>20</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -3616,14 +4095,17 @@
       <c r="D129" s="3">
         <v>55</v>
       </c>
-      <c r="E129" s="8">
+      <c r="E129" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F129" s="8">
         <v>65</v>
       </c>
-      <c r="F129" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>137</v>
       </c>
@@ -3636,14 +4118,17 @@
       <c r="D130" s="3">
         <v>78</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -3656,14 +4141,17 @@
       <c r="D131" s="3">
         <v>35</v>
       </c>
-      <c r="E131" s="8">
+      <c r="E131" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F131" s="8">
         <v>20</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>139</v>
       </c>
@@ -3676,14 +4164,17 @@
       <c r="D132" s="3">
         <v>76</v>
       </c>
-      <c r="E132" s="8">
-        <v>70</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E132" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F132" s="8">
+        <v>70</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -3696,14 +4187,17 @@
       <c r="D133" s="3">
         <v>32</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E133" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F133" s="8">
         <v>30</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -3716,14 +4210,17 @@
       <c r="D134" s="3">
         <v>30</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F134" s="8">
         <v>25</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -3736,14 +4233,17 @@
       <c r="D135" s="3">
         <v>23</v>
       </c>
-      <c r="E135" s="8">
+      <c r="E135" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F135" s="8">
         <v>18</v>
       </c>
-      <c r="F135" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>143</v>
       </c>
@@ -3756,14 +4256,17 @@
       <c r="D136" s="3">
         <v>85</v>
       </c>
-      <c r="E136" s="8">
-        <v>70</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E136" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F136" s="8">
+        <v>70</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -3776,14 +4279,17 @@
       <c r="D137" s="3">
         <v>27</v>
       </c>
-      <c r="E137" s="8">
+      <c r="E137" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F137" s="8">
         <v>26</v>
       </c>
-      <c r="F137" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>145</v>
       </c>
@@ -3796,14 +4302,17 @@
       <c r="D138" s="3">
         <v>20</v>
       </c>
-      <c r="E138" s="8">
+      <c r="E138" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F138" s="8">
         <v>13</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -3816,14 +4325,17 @@
       <c r="D139" s="3">
         <v>24</v>
       </c>
-      <c r="E139" s="8">
+      <c r="E139" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F139" s="8">
         <v>20</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -3836,14 +4348,17 @@
       <c r="D140" s="3">
         <v>20</v>
       </c>
-      <c r="E140" s="8">
+      <c r="E140" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F140" s="8">
         <v>15</v>
       </c>
-      <c r="F140" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>148</v>
       </c>
@@ -3856,14 +4371,17 @@
       <c r="D141" s="3">
         <v>21</v>
       </c>
-      <c r="E141" s="8">
+      <c r="E141" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F141" s="8">
         <v>15</v>
       </c>
-      <c r="F141" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -3876,14 +4394,17 @@
       <c r="D142" s="3">
         <v>47</v>
       </c>
-      <c r="E142" s="8">
+      <c r="E142" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F142" s="8">
         <v>28</v>
       </c>
-      <c r="F142" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -3896,14 +4417,17 @@
       <c r="D143" s="3">
         <v>37</v>
       </c>
-      <c r="E143" s="8">
+      <c r="E143" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F143" s="8">
         <v>32</v>
       </c>
-      <c r="F143" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -3916,14 +4440,17 @@
       <c r="D144" s="3">
         <v>70</v>
       </c>
-      <c r="E144" s="8">
+      <c r="E144" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F144" s="8">
         <v>35</v>
       </c>
-      <c r="F144" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G144" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -3936,14 +4463,17 @@
       <c r="D145" s="3">
         <v>27</v>
       </c>
-      <c r="E145" s="8">
-        <v>5</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E145" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F145" s="8">
+        <v>5</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -3956,15 +4486,18 @@
       <c r="D146" s="3">
         <v>56</v>
       </c>
-      <c r="E146" s="8">
+      <c r="E146" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F146" s="8">
         <v>20</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I146" s="6"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G146" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>154</v>
       </c>
@@ -3977,14 +4510,17 @@
       <c r="D147" s="3">
         <v>56</v>
       </c>
-      <c r="E147" s="8">
+      <c r="E147" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F147" s="8">
         <v>40</v>
       </c>
-      <c r="F147" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G147" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -3997,14 +4533,17 @@
       <c r="D148" s="3">
         <v>19</v>
       </c>
-      <c r="E148" s="8">
+      <c r="E148" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F148" s="8">
         <v>2</v>
       </c>
-      <c r="F148" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G148" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -4017,14 +4556,17 @@
       <c r="D149" s="3">
         <v>19</v>
       </c>
-      <c r="E149" s="8">
+      <c r="E149" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F149" s="8">
         <v>11</v>
       </c>
-      <c r="F149" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G149" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -4037,14 +4579,17 @@
       <c r="D150" s="3">
         <v>24</v>
       </c>
-      <c r="E150" s="8">
-        <v>8</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E150" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F150" s="8">
+        <v>8</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -4057,14 +4602,17 @@
       <c r="D151" s="3">
         <v>22</v>
       </c>
-      <c r="E151" s="8">
+      <c r="E151" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F151" s="8">
         <v>13</v>
       </c>
-      <c r="F151" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G151" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>159</v>
       </c>
@@ -4077,14 +4625,17 @@
       <c r="D152" s="3">
         <v>45</v>
       </c>
-      <c r="E152" s="8">
+      <c r="E152" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F152" s="8">
         <v>35</v>
       </c>
-      <c r="F152" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G152" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>160</v>
       </c>
@@ -4097,14 +4648,17 @@
       <c r="D153" s="3">
         <v>70</v>
       </c>
-      <c r="E153" s="8">
-        <v>70</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E153" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F153" s="8">
+        <v>70</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -4117,14 +4671,17 @@
       <c r="D154" s="3">
         <v>40</v>
       </c>
-      <c r="E154" s="8">
+      <c r="E154" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F154" s="8">
         <v>35</v>
       </c>
-      <c r="F154" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G154" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -4137,14 +4694,17 @@
       <c r="D155" s="3">
         <v>27</v>
       </c>
-      <c r="E155" s="8">
+      <c r="E155" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F155" s="8">
         <v>13</v>
       </c>
-      <c r="F155" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G155" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -4157,14 +4717,17 @@
       <c r="D156" s="3">
         <v>32</v>
       </c>
-      <c r="E156" s="8">
+      <c r="E156" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F156" s="8">
         <v>25</v>
       </c>
-      <c r="F156" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G156" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -4177,14 +4740,17 @@
       <c r="D157" s="3">
         <v>50</v>
       </c>
-      <c r="E157" s="8">
+      <c r="E157" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F157" s="8">
         <v>45</v>
       </c>
-      <c r="F157" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G157" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -4197,14 +4763,17 @@
       <c r="D158" s="3">
         <v>35</v>
       </c>
-      <c r="E158" s="8">
+      <c r="E158" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F158" s="8">
         <v>30</v>
       </c>
-      <c r="F158" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G158" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -4217,14 +4786,17 @@
       <c r="D159" s="3">
         <v>51</v>
       </c>
-      <c r="E159" s="8">
+      <c r="E159" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F159" s="8">
         <v>50</v>
       </c>
-      <c r="F159" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G159" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -4237,14 +4809,17 @@
       <c r="D160" s="3">
         <v>19</v>
       </c>
-      <c r="E160" s="8">
+      <c r="E160" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F160" s="8">
         <v>10</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -4257,14 +4832,17 @@
       <c r="D161" s="3">
         <v>28</v>
       </c>
-      <c r="E161" s="8">
+      <c r="E161" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F161" s="8">
         <v>20</v>
       </c>
-      <c r="F161" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -4277,14 +4855,17 @@
       <c r="D162" s="3">
         <v>18</v>
       </c>
-      <c r="E162" s="8">
+      <c r="E162" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F162" s="8">
         <v>12</v>
       </c>
-      <c r="F162" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>170</v>
       </c>
@@ -4297,14 +4878,17 @@
       <c r="D163" s="3">
         <v>25</v>
       </c>
-      <c r="E163" s="8">
+      <c r="E163" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F163" s="8">
         <v>25</v>
       </c>
-      <c r="F163" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -4317,10 +4901,13 @@
       <c r="D164" s="3">
         <v>70</v>
       </c>
-      <c r="E164" s="8">
-        <v>70</v>
-      </c>
-      <c r="F164" s="5" t="s">
+      <c r="E164" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F164" s="8">
+        <v>70</v>
+      </c>
+      <c r="G164" s="5" t="s">
         <v>172</v>
       </c>
     </row>
